--- a/Tabellen/Objecte in Kueche.xlsx
+++ b/Tabellen/Objecte in Kueche.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
   <si>
     <t xml:space="preserve">Küche</t>
   </si>
@@ -336,14 +336,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5C2D91"/>
-        <bgColor rgb="FF993366"/>
+        <fgColor rgb="FF72BF44"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF72BF44"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FF5C2D91"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
   </fills>
@@ -487,10 +487,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AW54"/>
+  <dimension ref="A1:AZ54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BA5" activeCellId="0" sqref="BA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2465,6 +2465,9 @@
       <c r="AV16" s="0" t="n">
         <v>0.287</v>
       </c>
+      <c r="AZ16" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AT17" s="0" t="n">
@@ -2476,12 +2479,15 @@
       <c r="AV17" s="0" t="n">
         <v>0.287</v>
       </c>
+      <c r="AZ17" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="3" t="n">
@@ -2495,13 +2501,16 @@
       </c>
       <c r="AV18" s="0" t="n">
         <v>0.299</v>
+      </c>
+      <c r="AZ18" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="n">
@@ -2515,13 +2524,16 @@
       </c>
       <c r="AV19" s="0" t="n">
         <v>0.325</v>
+      </c>
+      <c r="AZ19" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3" t="n">
@@ -2535,13 +2547,16 @@
       </c>
       <c r="AV20" s="0" t="n">
         <v>0.354</v>
+      </c>
+      <c r="AZ20" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="n">
@@ -2555,13 +2570,16 @@
       </c>
       <c r="AV21" s="0" t="n">
         <v>0.362</v>
+      </c>
+      <c r="AZ21" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="3" t="n">
@@ -2575,13 +2593,16 @@
       </c>
       <c r="AV22" s="0" t="n">
         <v>0.366</v>
+      </c>
+      <c r="AZ22" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="3" t="n">
@@ -2595,13 +2616,16 @@
       </c>
       <c r="AV23" s="0" t="n">
         <v>0.372</v>
+      </c>
+      <c r="AZ23" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="3" t="n">
@@ -2615,13 +2639,16 @@
       </c>
       <c r="AV24" s="0" t="n">
         <v>0.385</v>
+      </c>
+      <c r="AZ24" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="3" t="n">
@@ -2635,13 +2662,16 @@
       </c>
       <c r="AV25" s="0" t="n">
         <v>0.434</v>
+      </c>
+      <c r="AZ25" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="3" t="n">
@@ -2661,7 +2691,7 @@
       <c r="A27" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="3" t="n">
@@ -2857,7 +2887,7 @@
       <c r="AL45" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="AM45" s="4" t="s">
+      <c r="AM45" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AN45" s="3" t="n">
@@ -2883,7 +2913,7 @@
       <c r="AL46" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AM46" s="5" t="s">
+      <c r="AM46" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AN46" s="3" t="n">
@@ -2892,7 +2922,7 @@
       <c r="AO46" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AP46" s="4" t="s">
+      <c r="AP46" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AQ46" s="3" t="n">
@@ -2909,7 +2939,7 @@
       <c r="AL47" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="AM47" s="5" t="s">
+      <c r="AM47" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AN47" s="3" t="n">
@@ -2918,7 +2948,7 @@
       <c r="AO47" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AP47" s="5" t="s">
+      <c r="AP47" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AQ47" s="3" t="n">
@@ -2955,7 +2985,7 @@
       <c r="AL49" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="AM49" s="4" t="s">
+      <c r="AM49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="AN49" s="3" t="n">
@@ -2964,7 +2994,7 @@
       <c r="AO49" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AP49" s="5" t="s">
+      <c r="AP49" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AQ49" s="3" t="n">
@@ -2978,7 +3008,7 @@
       <c r="AL50" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="AM50" s="4" t="s">
+      <c r="AM50" s="5" t="s">
         <v>3</v>
       </c>
       <c r="AN50" s="3" t="n">
@@ -2987,7 +3017,7 @@
       <c r="AO50" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AP50" s="5" t="s">
+      <c r="AP50" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AQ50" s="3" t="n">
@@ -3001,7 +3031,7 @@
       <c r="AL51" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="AM51" s="4" t="s">
+      <c r="AM51" s="5" t="s">
         <v>2</v>
       </c>
       <c r="AN51" s="3" t="n">
@@ -3024,7 +3054,7 @@
       <c r="AL52" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="AM52" s="4" t="s">
+      <c r="AM52" s="5" t="s">
         <v>21</v>
       </c>
       <c r="AN52" s="3" t="n">
@@ -3047,7 +3077,7 @@
       <c r="AL53" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AM53" s="5" t="s">
+      <c r="AM53" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AN53" s="3" t="n">
@@ -3056,7 +3086,7 @@
       <c r="AO53" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="AP53" s="5" t="s">
+      <c r="AP53" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AQ53" s="3" t="n">
@@ -3070,7 +3100,7 @@
       <c r="AL54" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AM54" s="5" t="s">
+      <c r="AM54" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AN54" s="3" t="n">
